--- a/Gmail/Data/Gmail.xlsx
+++ b/Gmail/Data/Gmail.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nazibahfariha/Downloads/TeamAutomation2018-master/Gmail/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFF69EE5-0798-1848-9C21-A6EB0E662D92}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{099ED616-8587-5A40-99E5-4EA7C2318D98}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13160" yWindow="460" windowWidth="15260" windowHeight="16500" xr2:uid="{A2B77738-E39E-9745-949D-AC561B3CBC56}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{A2B77738-E39E-9745-949D-AC561B3CBC56}"/>
   </bookViews>
   <sheets>
-    <sheet name="HomeReview your privacy setting" sheetId="1" r:id="rId1"/>
-    <sheet name="Payments &amp; Sub" sheetId="2" r:id="rId2"/>
+    <sheet name="HelpOptions" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,24 +30,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Make Google Yours</t>
+    <t>Help</t>
   </si>
   <si>
-    <t>Payment method</t>
+    <t>Privacy</t>
   </si>
   <si>
-    <t>Purchase</t>
+    <t>Terms</t>
   </si>
   <si>
-    <t>Review your Privacy</t>
-  </si>
-  <si>
-    <t>HomeReview your privacy setting</t>
-  </si>
-  <si>
-    <t>Payments &amp; Sub</t>
+    <t>HelpOptions</t>
   </si>
 </sst>
 </file>
@@ -400,11 +393,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A859C7F7-F619-D84C-AF59-BBBD3E8CEA5F}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -413,49 +404,21 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8B9FAF9-B6DC-D345-A64C-C85773A18A66}">
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="57.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>

--- a/Gmail/Data/Gmail.xlsx
+++ b/Gmail/Data/Gmail.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nazibahfariha/Downloads/TeamAutomation2018-master/Gmail/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{099ED616-8587-5A40-99E5-4EA7C2318D98}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C20C7B-DE72-E049-9509-3CA190A87872}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{A2B77738-E39E-9745-949D-AC561B3CBC56}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16520" xr2:uid="{A2B77738-E39E-9745-949D-AC561B3CBC56}"/>
   </bookViews>
   <sheets>
     <sheet name="HelpOptions" sheetId="1" r:id="rId1"/>
@@ -395,7 +395,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A859C7F7-F619-D84C-AF59-BBBD3E8CEA5F}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>

--- a/Gmail/Data/Gmail.xlsx
+++ b/Gmail/Data/Gmail.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10115"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nazibahfariha/Downloads/TeamAutomation2018-master/Gmail/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C20C7B-DE72-E049-9509-3CA190A87872}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B764A2-DCD2-2648-86F0-C8BF29C64768}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16520" xr2:uid="{A2B77738-E39E-9745-949D-AC561B3CBC56}"/>
   </bookViews>
@@ -395,9 +395,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A859C7F7-F619-D84C-AF59-BBBD3E8CEA5F}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="98" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
